--- a/outputs_prep_v2/matrix_block_flags_v2.xlsx
+++ b/outputs_prep_v2/matrix_block_flags_v2.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t xml:space="preserve">dummy_block</t>
   </si>
@@ -32,42 +32,33 @@
     <t xml:space="preserve">1.9. Сиз асосан нималардан доимий даромад топасиз?</t>
   </si>
   <si>
+    <t xml:space="preserve">3.2. Фикрингизча, қуйидагилардан қайси бири қарз (кредит, насия)ни кечиктириш ёки тўламаслик учун узрли сабаб бўлиши мумкин?</t>
+  </si>
+  <si>
     <t xml:space="preserve">2.2.г. Сиз нега қарз, кредит, насия олмасликни афзал кўрасиз?</t>
   </si>
   <si>
-    <t xml:space="preserve">3.11.1. Кредит</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2. Фикрингизча, қуйидагилардан қайси бири қарз (кредит, насия)ни кечиктириш ёки тўламаслик учун узрли сабаб бўлиши мумкин?</t>
-  </si>
-  <si>
     <t xml:space="preserve">2.10. Қарз (кредит, насия) олишга қарор қилишингизга нима таъсир кўрсатди?</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2.б Нима сабабдан қарз олиш учун тижорат банкларига мурожаат қиласиз? (ушбу савол Тижорат банки варианти белгиланса кўринади)</t>
+    <t xml:space="preserve">2.5. Қарз, кредит, насия қайси манбадан олинган?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.11.1. Кредит/қарз/насияни ундириш жараёнида қуйидагилардан қайсилари сизга нисбатан қўлланилган?</t>
   </si>
   <si>
     <t xml:space="preserve">3.11.2. Сизнингча кредитларни ўз вақтида қайтариш (тўлаш) бўйича эслатмалар ва огоҳлантиришларнинг энг самарали воситаси қайсилар?</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2.а. Нима учун норасмий қарз (пул кўринишида) ёки насияга (маҳсулот кўринишида) мурожаат қиласиз? (ушбу савол Норасмий насия хизмати, Кўчада фоиз эвазига пул (қарз) берувчи норасмий шахслар ва Оила аъзолари, дўстлар ёки танишларга варианталри белгиланса кўринади)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5. Қарз, кредит, насия қайси манбадан олинган?</t>
+    <t xml:space="preserve">2.7.a Нима сабабдан оилавий тадбиркорлик кредитини олгансиз?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7.б. Оилавий тадбиркорлик кредитларининг қайтарилмаслик сабаблари нима деб ўйлайсиз?</t>
   </si>
   <si>
     <t xml:space="preserve">2.7.в. Сизнингча, ушбу кредитларни ўз вақтида қайтарилишини даражасини ошириш учун қандай турдаги ёрдам ва қўллаб-қувватлаш чоралари зарур деб ҳисоблайсиз?</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2.в. Нима учун бошқа расмий кредит ва насия ташкилотларига мурожаат қиласиз? (ушбу савол Расмий насия хизматлари, Микромолия ташкилотлари ва Ломбардларга варианталри белгиланса кўринади)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7.a Нима сабабдан оилавий тадбиркорлик кредитини олгансиз?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7.б. Оилавий тадбиркорлик кредитларининг қайтарилмаслик сабаблари нима деб ўйлайсиз?</t>
-  </si>
-  <si>
     <t xml:space="preserve">3.9. Биринчи навбатда қайси манбадаги қарзлар (кредит, насия) тўланиши керак деб ҳисоблайсиз?</t>
   </si>
   <si>
@@ -95,10 +86,16 @@
     <t xml:space="preserve">2-3.3 Қарз олган шахс тўловни кечиктирганда банк кимни хабардор қилиш мақсадга мувофиқ деб ҳисоблайсиз?</t>
   </si>
   <si>
-    <t xml:space="preserve">2.4.1. Бугунги кунда номингизда нечта кредит</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.4.3. Агар даромадсиз қолсангиз, неча ой давомида кредит</t>
+    <t xml:space="preserve">2.2.г. Сиз нега қарз, кредит, насия олмасликни афзал кўрасиз?/Оилам</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7. Ушбу қарзни (кредит, насия) олишда асосий мақсад нима бўлган?/Маиший техника </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7. Ушбу қарзни (кредит, насия) олишда асосий мақсад нима бўлган?/Қариндошларим </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7.в. Сизнингча, ушбу кредитларни ўз вақтида қайтарилишини даражасини ошириш учун қандай турдаги ёрдам ва қўллаб-қувватлаш чоралари зарур деб ҳисоблайсиз?/Бизнес кўникмалари бўйича ўқув</t>
   </si>
   <si>
     <t xml:space="preserve">3-2.1. Сизнинг фикрингизча, одамлар қандай мақсадларда қарз, кредит ёки насия олиши мақсадга мувофиқ?</t>
@@ -110,7 +107,16 @@
     <t xml:space="preserve">3-3.3 Қарз олган шахс тўловни кечиктирганда банк кимни хабардор қилиш мақсадга мувофиқ деб ҳисоблайсиз?</t>
   </si>
   <si>
-    <t xml:space="preserve">3.6. Қарз (кредит, насия) олишдан аввал кредит шартлари, шу жумладан, фоиз тўловлари юзасидан банк ходимлари</t>
+    <t xml:space="preserve">3.11.1. Кредит/қарз/насияни ундириш жараёнида қуйидагилардан қайсилари сизга нисбатан қўлланилган?/Банк ходимининг уйга</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.11.1. Кредит/қарз/насияни ундириш жараёнида қуйидагилардан қайсилари сизга нисбатан қўлланилган?/МИБ ходимининг уйга</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.11.2. Сизнингча кредитларни ўз вақтида қайтариш (тўлаш) бўйича эслатмалар ва огоҳлантиришларнинг энг самарали воситаси қайсилар?/Мессенжерлар (Telegram</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.7. Нима сабабдан қарз (кредит, насия) ўз вақтида амалга ошириш имконияти мавжуд бўлмаган?/Даромадларим мавсумий</t>
   </si>
   <si>
     <t xml:space="preserve">4-2.1. Сизнинг фикрингизча, одамлар қандай мақсадларда қарз, кредит ёки насия олиши мақсадга мувофиқ?</t>
@@ -503,10 +509,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -514,7 +520,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C3" t="b">
         <v>0</v>
@@ -547,10 +553,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -558,10 +564,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -569,7 +575,7 @@
         <v>9</v>
       </c>
       <c r="B8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" t="b">
         <v>0</v>
@@ -580,7 +586,7 @@
         <v>10</v>
       </c>
       <c r="B9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" t="b">
         <v>0</v>
@@ -591,7 +597,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10" t="b">
         <v>0</v>
@@ -602,7 +608,7 @@
         <v>12</v>
       </c>
       <c r="B11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C11" t="b">
         <v>0</v>
@@ -613,10 +619,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -624,7 +630,7 @@
         <v>14</v>
       </c>
       <c r="B13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C13" t="b">
         <v>0</v>
@@ -646,7 +652,7 @@
         <v>16</v>
       </c>
       <c r="B15" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C15" t="b">
         <v>0</v>
@@ -657,10 +663,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -668,7 +674,7 @@
         <v>18</v>
       </c>
       <c r="B17" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C17" t="b">
         <v>0</v>
@@ -679,7 +685,7 @@
         <v>19</v>
       </c>
       <c r="B18" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C18" t="b">
         <v>0</v>
@@ -847,7 +853,7 @@
         <v>1</v>
       </c>
       <c r="C33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -990,6 +996,28 @@
         <v>1</v>
       </c>
       <c r="C46" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47" t="n">
+        <v>1</v>
+      </c>
+      <c r="C47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48" t="n">
+        <v>1</v>
+      </c>
+      <c r="C48" t="b">
         <v>0</v>
       </c>
     </row>

--- a/outputs_prep_v2/matrix_block_flags_v2.xlsx
+++ b/outputs_prep_v2/matrix_block_flags_v2.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t xml:space="preserve">dummy_block</t>
   </si>
@@ -41,6 +41,9 @@
     <t xml:space="preserve">2.10. Қарз (кредит, насия) олишга қарор қилишингизга нима таъсир кўрсатди?</t>
   </si>
   <si>
+    <t xml:space="preserve">2.2.б Нима сабабдан қарз олиш учун тижорат банкларига мурожаат қиласиз? (ушбу савол Тижорат банки варианти белгиланса кўринади)</t>
+  </si>
+  <si>
     <t xml:space="preserve">2.5. Қарз, кредит, насия қайси манбадан олинган?</t>
   </si>
   <si>
@@ -50,6 +53,9 @@
     <t xml:space="preserve">3.11.2. Сизнингча кредитларни ўз вақтида қайтариш (тўлаш) бўйича эслатмалар ва огоҳлантиришларнинг энг самарали воситаси қайсилар?</t>
   </si>
   <si>
+    <t xml:space="preserve">2.2.а. Нима учун норасмий қарз (пул кўринишида) ёки насияга (маҳсулот кўринишида) мурожаат қиласиз? (ушбу савол Норасмий насия хизмати, Кўчада фоиз эвазига пул (қарз) берувчи норасмий шахслар ва Оила аъзолари, дўстлар ёки танишларга варианталри белгиланса кўринади)</t>
+  </si>
+  <si>
     <t xml:space="preserve">2.7.a Нима сабабдан оилавий тадбиркорлик кредитини олгансиз?</t>
   </si>
   <si>
@@ -60,6 +66,9 @@
   </si>
   <si>
     <t xml:space="preserve">3.9. Биринчи навбатда қайси манбадаги қарзлар (кредит, насия) тўланиши керак деб ҳисоблайсиз?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2.в. Нима учун бошқа расмий кредит ва насия ташкилотларига мурожаат қиласиз? (ушбу савол Расмий насия хизматлари, Микромолия ташкилотлари ва Ломбардларга варианталри белгиланса кўринади)</t>
   </si>
   <si>
     <t xml:space="preserve">2.4. Бугунги кунда номингизда қарз, кредит ёки насия (рассрочка) мавжудми?</t>
@@ -575,7 +584,7 @@
         <v>9</v>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="b">
         <v>0</v>
@@ -608,7 +617,7 @@
         <v>12</v>
       </c>
       <c r="B11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C11" t="b">
         <v>0</v>
@@ -622,7 +631,7 @@
         <v>6</v>
       </c>
       <c r="C12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -644,7 +653,7 @@
         <v>6</v>
       </c>
       <c r="C14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -652,7 +661,7 @@
         <v>16</v>
       </c>
       <c r="B15" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C15" t="b">
         <v>0</v>
@@ -663,7 +672,7 @@
         <v>17</v>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C16" t="b">
         <v>0</v>
@@ -674,7 +683,7 @@
         <v>18</v>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C17" t="b">
         <v>0</v>
@@ -685,7 +694,7 @@
         <v>19</v>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C18" t="b">
         <v>0</v>
@@ -853,7 +862,7 @@
         <v>1</v>
       </c>
       <c r="C33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -886,7 +895,7 @@
         <v>1</v>
       </c>
       <c r="C36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -1018,6 +1027,39 @@
         <v>1</v>
       </c>
       <c r="C48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49" t="n">
+        <v>1</v>
+      </c>
+      <c r="C49" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>51</v>
+      </c>
+      <c r="B50" t="n">
+        <v>1</v>
+      </c>
+      <c r="C50" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>52</v>
+      </c>
+      <c r="B51" t="n">
+        <v>1</v>
+      </c>
+      <c r="C51" t="b">
         <v>0</v>
       </c>
     </row>
